--- a/4semestr/ProgramowanieAplikacjiUzytkowych/ZadaniaDomowe/ZadaniaDomowe.xlsx
+++ b/4semestr/ProgramowanieAplikacjiUzytkowych/ZadaniaDomowe/ZadaniaDomowe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/4semestr/ProgramowanieAplikacjiUzytkowych/ZadaniaDomowe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E2382CA-A159-A744-BB4E-0374DBED0D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B97527C-7D24-334B-8B45-D70DA1C67133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17100" xr2:uid="{D9A411EB-10DE-C946-808B-C33A3CACD63E}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
